--- a/docs/Futási idő/Futási idő.xlsx
+++ b/docs/Futási idő/Futási idő.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\Downloads\Parallel_Devices\docs\Futási idő\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8F4431-5F20-4B45-B327-2BD93C244F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933C72C0-30C3-4DB2-8B3A-31CDB88BD5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6770989D-BC8E-4571-BAAB-6A50655984EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Tömbméret</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Összefésülő rendezés</t>
+  </si>
+  <si>
+    <t>Gyorsítás</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,11 +133,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,9 +230,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -351,6 +451,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44125949430450545"/>
+              <c:y val="0.91080711282944737"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -416,6 +579,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltelt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> idő</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -708,6 +931,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43549312691845721"/>
+              <c:y val="0.90489131583010329"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -773,6 +1059,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltelt idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1289,6 +1630,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1366,6 +1762,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltelt idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1479,6 +1930,498 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Gyorsítás</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gyorsrendezés!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gyorsítás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Gyorsrendezés!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gyorsrendezés!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General\ "ms"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1303.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1287.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1626.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017.391304347826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2267-4671-9DA9-10326F496250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="68000576"/>
+        <c:axId val="68003456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68000576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44859596456692918"/>
+              <c:y val="0.85431566202253539"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68003456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68003456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltelt idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444389763779529E-2"/>
+              <c:y val="0.38788195214700211"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68000576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="hu-HU"/>
@@ -1660,6 +2603,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43843542096198118"/>
+              <c:y val="0.86685614855630766"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1725,6 +2731,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t>t idő</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6969693730433076E-2"/>
+              <c:y val="0.40350841966892081"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1843,7 +2917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="hu-HU"/>
@@ -2030,6 +3104,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42896325459317586"/>
+              <c:y val="0.86951106057040839"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2095,6 +3232,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltelt idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9047619047619049E-2"/>
+              <c:y val="0.40543247889586059"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2213,7 +3413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="hu-HU"/>
@@ -2618,6 +3818,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2695,6 +3950,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltelt idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2783,6 +4093,472 @@
         <a:schemeClr val="dk1">
           <a:lumMod val="25000"/>
           <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Összefésülő rendezés'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gyorsítás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Összefésülő rendezés'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Összefésülő rendezés'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General\ "ms"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.63636363636364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B70F-4FC9-9B74-F32489A6FC9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2083625376"/>
+        <c:axId val="2083627776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2083625376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Tömbméret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45977574542312644"/>
+              <c:y val="0.86483298641815498"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083627776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083627776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Eltelt idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3250517598343685E-2"/>
+              <c:y val="0.41848074300761434"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083625376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2928,48 +4704,14 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3013,6 +4755,52 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5594,6 +7382,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6161,20 +8452,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6201,16 +8995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6237,16 +9031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238123</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6271,6 +9065,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB1C019-D4B4-60B1-06C0-BF88CAD487B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6278,16 +9108,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6379,6 +9209,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4218096-1240-4D52-A251-1135A2A4B17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6704,10 +9570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EADEC2-242F-4473-8C8C-13CCE47DB423}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6717,93 +9583,121 @@
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000000</v>
       </c>
       <c r="B3" s="2">
         <v>1.02</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>2E-3</v>
       </c>
+      <c r="D3" s="11">
+        <f>B3 / C3</f>
+        <v>510</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2000000</v>
       </c>
       <c r="B4" s="4">
         <v>3.91</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D8" si="0">B4 / C4</f>
+        <v>1303.3333333333333</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3000000</v>
       </c>
       <c r="B5" s="4">
         <v>8.66</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <v>0.01</v>
       </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>866</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4500000</v>
       </c>
       <c r="B6" s="4">
         <v>19.309999999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>1287.3333333333333</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6000000</v>
       </c>
       <c r="B7" s="4">
         <v>34.159999999999997</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>1626.6666666666665</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7000000</v>
       </c>
       <c r="B8" s="4">
         <v>46.4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>2.3E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>2017.391304347826</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6812,10 +9706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC363895-7D08-46AB-8393-AD9DD3DBB802}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6825,93 +9719,121 @@
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000000</v>
       </c>
       <c r="B3" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>1E-3</v>
       </c>
+      <c r="D3" s="15">
+        <f>B3 / C3</f>
+        <v>290</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2000000</v>
       </c>
       <c r="B4" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9">
         <v>2E-3</v>
       </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D8" si="0">B4 / C4</f>
+        <v>284.99999999999994</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3000000</v>
       </c>
       <c r="B5" s="4">
         <v>0.86</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4500000</v>
       </c>
       <c r="B6" s="4">
         <v>1.32</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6000000</v>
       </c>
       <c r="B7" s="4">
         <v>1.76</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>251.42857142857142</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7000000</v>
       </c>
       <c r="B8" s="4">
         <v>2.06</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>93.63636363636364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Futási idő/Futási idő.xlsx
+++ b/docs/Futási idő/Futási idő.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\Downloads\Parallel_Devices\docs\Futási idő\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\Parallel_Devices\docs\Futási idő\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933C72C0-30C3-4DB2-8B3A-31CDB88BD5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05988C-21C4-4E40-A478-778BB783B92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6770989D-BC8E-4571-BAAB-6A50655984EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6770989D-BC8E-4571-BAAB-6A50655984EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Gyorsrendezés" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,9 +233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,7 +241,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,7 +251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1964,7 +1961,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU"/>
-              <a:t>Gyorsítás</a:t>
+              <a:t>Gyorsrendezés</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4132,6 +4129,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Összefésülő rendezés</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9572,8 +9594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EADEC2-242F-4473-8C8C-13CCE47DB423}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,7 +9606,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13"/>
@@ -9598,10 +9620,10 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9612,10 +9634,10 @@
       <c r="B3" s="2">
         <v>1.02</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2E-3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>B3 / C3</f>
         <v>510</v>
       </c>
@@ -9627,10 +9649,10 @@
       <c r="B4" s="4">
         <v>3.91</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:D8" si="0">B4 / C4</f>
         <v>1303.3333333333333</v>
       </c>
@@ -9642,10 +9664,10 @@
       <c r="B5" s="4">
         <v>8.66</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.01</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>866</v>
       </c>
@@ -9657,10 +9679,10 @@
       <c r="B6" s="4">
         <v>19.309999999999999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>1287.3333333333333</v>
       </c>
@@ -9672,10 +9694,10 @@
       <c r="B7" s="4">
         <v>34.159999999999997</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>1626.6666666666665</v>
       </c>
@@ -9687,10 +9709,10 @@
       <c r="B8" s="4">
         <v>46.4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>2.3E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>2017.391304347826</v>
       </c>
@@ -9708,8 +9730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC363895-7D08-46AB-8393-AD9DD3DBB802}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9720,7 +9742,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="13"/>
@@ -9734,10 +9756,10 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9748,10 +9770,10 @@
       <c r="B3" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1E-3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <f>B3 / C3</f>
         <v>290</v>
       </c>
@@ -9763,10 +9785,10 @@
       <c r="B4" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2E-3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:D8" si="0">B4 / C4</f>
         <v>284.99999999999994</v>
       </c>
@@ -9778,10 +9800,10 @@
       <c r="B5" s="4">
         <v>0.86</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
@@ -9793,10 +9815,10 @@
       <c r="B6" s="4">
         <v>1.32</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
@@ -9808,10 +9830,10 @@
       <c r="B7" s="4">
         <v>1.76</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>251.42857142857142</v>
       </c>
@@ -9823,10 +9845,10 @@
       <c r="B8" s="4">
         <v>2.06</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>93.63636363636364</v>
       </c>
